--- a/4_Data_Extraction/4_2_Open_Data/Paper_51/Clean_Data/CodeBook_P51_Exp2_Clean.xlsx
+++ b/4_Data_Extraction/4_2_Open_Data/Paper_51/Clean_Data/CodeBook_P51_Exp2_Clean.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Participant identifier</t>
   </si>
   <si>
-    <t>Integer</t>
+    <t>NA</t>
   </si>
   <si>
     <t>Numeric</t>
@@ -59,7 +59,7 @@
     <t>Whether the label-shape pairs match</t>
   </si>
   <si>
-    <t>Yes / No</t>
+    <t>Matching;Nomatching</t>
   </si>
   <si>
     <t>Categorical</t>
@@ -71,13 +71,7 @@
     <t>Identity represented by the label</t>
   </si>
   <si>
-    <t>Self / Stranger / Celebrity</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>Session identifier</t>
+    <t>Self;Celebrity</t>
   </si>
   <si>
     <t>RT_ms</t>
@@ -92,16 +86,13 @@
     <t>Response time (seconds)</t>
   </si>
   <si>
-    <t>Decimal</t>
-  </si>
-  <si>
     <t>ACC</t>
   </si>
   <si>
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Percentage</t>
+    <t>0;1</t>
   </si>
   <si>
     <t>condition1level</t>
@@ -110,7 +101,7 @@
     <t>Experimental condition level</t>
   </si>
   <si>
-    <t>Specific values</t>
+    <t>1;2</t>
   </si>
 </sst>
 </file>
@@ -1050,18 +1041,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="86.375" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="13.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1173,20 +1164,6 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
